--- a/Algorithm.MVC/Users/612c3f41-cb7b-4eba-9b8e-68b40e7b79f3/boq-files/ITI.Qondos.2-BOQ.xlsx
+++ b/Algorithm.MVC/Users/612c3f41-cb7b-4eba-9b8e-68b40e7b79f3/boq-files/ITI.Qondos.2-BOQ.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ITI.Qondos.2.ifcBOQ</t>
   </si>
@@ -38,40 +38,52 @@
     <t>Floor Joist 2 × 10 × 96</t>
   </si>
   <si>
-    <t>Wall Stud 2 × 6 × 108</t>
+    <t>Wall Stud 2 × 6 × 106</t>
   </si>
   <si>
     <t>Wall Stud 2 × 6 × 36</t>
   </si>
   <si>
-    <t>Wall Stud 2 × 6 × 18</t>
-  </si>
-  <si>
-    <t>Wall Stud 2 × 6 × 21</t>
-  </si>
-  <si>
-    <t>Wall Sill 552.0006 × 6 × 2</t>
-  </si>
-  <si>
-    <t>Wall Sill 36 × 6 × 6.0001</t>
-  </si>
-  <si>
-    <t>Wall Sill 36 × 6 × 7.0001</t>
-  </si>
-  <si>
-    <t>Wall Sill 258.0002 × 6 × 2</t>
-  </si>
-  <si>
-    <t>Wall Sill 234.0002 × 6 × 2</t>
-  </si>
-  <si>
-    <t>Wall Sill 546.0006 × 6 × 2</t>
-  </si>
-  <si>
-    <t>Wall Sill 312.0004 × 6 × 2</t>
-  </si>
-  <si>
-    <t>Wall Sill 186.0002 × 6 × 2</t>
+    <t>Wall Stud 2 × 6 × 22</t>
+  </si>
+  <si>
+    <t>Wall Stud 2 × 6 × 26</t>
+  </si>
+  <si>
+    <t>Wall Sill 2 × 6 × 552.0006</t>
+  </si>
+  <si>
+    <t>Wall Sill 4 × 2 × 36</t>
+  </si>
+  <si>
+    <t>Wall Sill 4 × 2 × 35.9999</t>
+  </si>
+  <si>
+    <t>Wall Sill 4 × 2 × 35.9998</t>
+  </si>
+  <si>
+    <t>Wall Sill 4 × 2 × 36.0001</t>
+  </si>
+  <si>
+    <t>Wall Sill 4 × 2 × 35.9997</t>
+  </si>
+  <si>
+    <t>Wall Sill 4 × 2 × 36.0002</t>
+  </si>
+  <si>
+    <t>Wall Sill 2 × 6 × 258.0002</t>
+  </si>
+  <si>
+    <t>Wall Sill 2 × 6 × 234.0002</t>
+  </si>
+  <si>
+    <t>Wall Sill 2 × 6 × 546.0006</t>
+  </si>
+  <si>
+    <t>Wall Sill 2 × 6 × 312.0004</t>
+  </si>
+  <si>
+    <t>Wall Sill 2 × 6 × 186.0002</t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -219,7 +231,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>362</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11">
@@ -227,7 +239,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -235,7 +247,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -243,52 +255,52 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
         <v>8</v>
-      </c>
-      <c r="C14" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
         <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -296,25 +308,49 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
         <v>4</v>
       </c>
     </row>
